--- a/pages/北京分公司营销周报汇总2023.xlsx
+++ b/pages/北京分公司营销周报汇总2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\streamlit\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B18D069-4E90-47C3-AFA7-CEC9B1D6FB71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077CB48E-1F65-434D-9AE0-D4BDAD83E737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="28">
   <si>
     <t>本月净佣金收入（万）</t>
   </si>
@@ -215,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -241,6 +241,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,10 +585,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V189"/>
+  <dimension ref="A1:V193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12637,8 +12640,389 @@
         <v>228.78</v>
       </c>
     </row>
+    <row r="188" spans="1:22" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B188" s="7">
+        <v>46</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="9">
+        <v>4</v>
+      </c>
+      <c r="E188" s="9">
+        <v>19</v>
+      </c>
+      <c r="F188" s="9">
+        <v>20</v>
+      </c>
+      <c r="G188" s="9">
+        <v>144</v>
+      </c>
+      <c r="H188" s="9">
+        <v>98</v>
+      </c>
+      <c r="I188" s="9">
+        <v>380.49</v>
+      </c>
+      <c r="J188" s="9">
+        <v>2279.58</v>
+      </c>
+      <c r="K188" s="9">
+        <v>6734.86</v>
+      </c>
+      <c r="L188" s="9">
+        <v>0</v>
+      </c>
+      <c r="M188" s="9">
+        <v>0</v>
+      </c>
+      <c r="N188" s="9">
+        <v>10</v>
+      </c>
+      <c r="O188" s="9">
+        <v>3</v>
+      </c>
+      <c r="P188" s="9">
+        <v>773.95</v>
+      </c>
+      <c r="Q188" s="9">
+        <v>8.73</v>
+      </c>
+      <c r="R188" s="9">
+        <v>13.79</v>
+      </c>
+      <c r="S188" s="9">
+        <v>276.57</v>
+      </c>
+      <c r="T188" s="9">
+        <v>10.35</v>
+      </c>
+      <c r="U188" s="9">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="V188" s="9">
+        <v>307.55</v>
+      </c>
+    </row>
     <row r="189" spans="1:22" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B189" s="7">
+        <v>46</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" s="9">
+        <v>25</v>
+      </c>
+      <c r="E189" s="9">
+        <v>43</v>
+      </c>
+      <c r="F189" s="9">
+        <v>36</v>
+      </c>
+      <c r="G189" s="9">
+        <v>399</v>
+      </c>
+      <c r="H189" s="9">
+        <v>179</v>
+      </c>
+      <c r="I189" s="9">
+        <v>648.78</v>
+      </c>
+      <c r="J189" s="9">
+        <v>1227.1199999999999</v>
+      </c>
+      <c r="K189" s="9">
+        <v>5039.83</v>
+      </c>
+      <c r="L189" s="9">
+        <v>0</v>
+      </c>
+      <c r="M189" s="9">
+        <v>1</v>
+      </c>
+      <c r="N189" s="9">
+        <v>11</v>
+      </c>
+      <c r="O189" s="9">
+        <v>3.16</v>
+      </c>
+      <c r="P189" s="9">
+        <v>1411.16</v>
+      </c>
+      <c r="Q189" s="9"/>
       <c r="R189" s="7"/>
+      <c r="S189" s="9"/>
+      <c r="T189" s="9">
+        <v>2.91</v>
+      </c>
+      <c r="U189" s="9">
+        <v>7.31</v>
+      </c>
+      <c r="V189" s="9">
+        <v>87.77</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B190" s="7">
+        <v>46</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="9">
+        <v>15</v>
+      </c>
+      <c r="E190" s="9">
+        <v>28</v>
+      </c>
+      <c r="F190" s="9">
+        <v>11</v>
+      </c>
+      <c r="G190" s="9">
+        <v>1336</v>
+      </c>
+      <c r="H190" s="9">
+        <v>102</v>
+      </c>
+      <c r="I190" s="9">
+        <v>197.64</v>
+      </c>
+      <c r="J190" s="9">
+        <v>342.36</v>
+      </c>
+      <c r="K190" s="9">
+        <v>2748.92</v>
+      </c>
+      <c r="L190" s="9">
+        <v>0</v>
+      </c>
+      <c r="M190" s="9">
+        <v>0</v>
+      </c>
+      <c r="N190" s="9">
+        <v>4</v>
+      </c>
+      <c r="O190" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="P190" s="9">
+        <v>1781.69</v>
+      </c>
+      <c r="Q190" s="9"/>
+      <c r="R190" s="9"/>
+      <c r="S190" s="9"/>
+      <c r="T190" s="9">
+        <v>2.74</v>
+      </c>
+      <c r="U190" s="9">
+        <v>6.85</v>
+      </c>
+      <c r="V190" s="9">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B191" s="7">
+        <v>46</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="9">
+        <v>3</v>
+      </c>
+      <c r="E191" s="9">
+        <v>7</v>
+      </c>
+      <c r="F191" s="9">
+        <v>2</v>
+      </c>
+      <c r="G191" s="9">
+        <v>83</v>
+      </c>
+      <c r="H191" s="9">
+        <v>50</v>
+      </c>
+      <c r="I191" s="9">
+        <v>19.22</v>
+      </c>
+      <c r="J191" s="9">
+        <v>26.16</v>
+      </c>
+      <c r="K191" s="9">
+        <v>562.07000000000005</v>
+      </c>
+      <c r="L191" s="9">
+        <v>0</v>
+      </c>
+      <c r="M191" s="9">
+        <v>0</v>
+      </c>
+      <c r="N191" s="9">
+        <v>15</v>
+      </c>
+      <c r="O191" s="9">
+        <v>4.84</v>
+      </c>
+      <c r="P191" s="9">
+        <v>3158.92</v>
+      </c>
+      <c r="Q191" s="9">
+        <v>2.19</v>
+      </c>
+      <c r="R191" s="9">
+        <v>7.65</v>
+      </c>
+      <c r="S191" s="9">
+        <v>103.88</v>
+      </c>
+      <c r="T191" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="U191" s="9">
+        <v>8.57</v>
+      </c>
+      <c r="V191" s="9">
+        <v>117.07</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B192" s="7">
+        <v>46</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" s="9">
+        <v>6</v>
+      </c>
+      <c r="E192" s="9">
+        <v>9</v>
+      </c>
+      <c r="F192" s="9">
+        <v>3</v>
+      </c>
+      <c r="G192" s="9">
+        <v>265</v>
+      </c>
+      <c r="H192" s="9">
+        <v>35</v>
+      </c>
+      <c r="I192" s="9">
+        <v>46.56</v>
+      </c>
+      <c r="J192" s="9">
+        <v>81.92</v>
+      </c>
+      <c r="K192" s="9">
+        <v>512.19000000000005</v>
+      </c>
+      <c r="L192" s="9">
+        <v>0</v>
+      </c>
+      <c r="M192" s="9">
+        <v>0</v>
+      </c>
+      <c r="N192" s="9">
+        <v>6</v>
+      </c>
+      <c r="O192" s="9">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="P192" s="9">
+        <v>166.55</v>
+      </c>
+      <c r="Q192" s="9"/>
+      <c r="R192" s="9"/>
+      <c r="S192" s="9"/>
+      <c r="T192" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="U192" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="V192" s="9">
+        <v>21.72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B193" s="7">
+        <v>46</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" s="9">
+        <v>3</v>
+      </c>
+      <c r="E193" s="9">
+        <v>3</v>
+      </c>
+      <c r="F193" s="9">
+        <v>2</v>
+      </c>
+      <c r="G193" s="9">
+        <v>141</v>
+      </c>
+      <c r="H193" s="9">
+        <v>88</v>
+      </c>
+      <c r="I193" s="9">
+        <v>13.85</v>
+      </c>
+      <c r="J193" s="9">
+        <v>20.54</v>
+      </c>
+      <c r="K193" s="9">
+        <v>1354.17</v>
+      </c>
+      <c r="L193" s="9">
+        <v>0</v>
+      </c>
+      <c r="M193" s="9">
+        <v>1</v>
+      </c>
+      <c r="N193" s="9">
+        <v>3</v>
+      </c>
+      <c r="O193" s="9">
+        <v>4.68</v>
+      </c>
+      <c r="P193" s="9">
+        <v>2547.3200000000002</v>
+      </c>
+      <c r="Q193" s="9"/>
+      <c r="R193" s="9"/>
+      <c r="S193" s="9"/>
+      <c r="T193" s="9">
+        <v>4.82</v>
+      </c>
+      <c r="U193" s="9">
+        <v>10.35</v>
+      </c>
+      <c r="V193" s="9">
+        <v>233.61</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:V181">
